--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.526900000000003</v>
+        <v>8.598599999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.14759999999999</v>
+        <v>-22.1599</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0719</v>
+        <v>6.1496</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.776700000000003</v>
+        <v>5.306900000000004</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.1404</v>
+        <v>-22.16750000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.35739999999997</v>
+        <v>-21.47249999999997</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.708600000000001</v>
+        <v>8.6714</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.015800000000001</v>
+        <v>5.249200000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.951500000000006</v>
+        <v>5.339000000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.9692</v>
+        <v>-21.8358</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.985900000000008</v>
+        <v>9.878300000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.93249999999999</v>
+        <v>-21.89019999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>5.425999999999999</v>
+        <v>6.3597</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.9644</v>
+        <v>5.803900000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.960999999999997</v>
+        <v>6.3648</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.465999999999997</v>
+        <v>5.419799999999993</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.800899999999997</v>
+        <v>5.988</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.419499999999997</v>
+        <v>5.381499999999996</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64589999999998</v>
+        <v>-21.61799999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.37159999999998</v>
+        <v>-19.64919999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.79569999999999</v>
+        <v>-21.8276</v>
       </c>
       <c r="B78" t="n">
-        <v>5.454800000000001</v>
+        <v>5.612</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.7959</v>
+        <v>9.694400000000003</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.68700000000001</v>
+        <v>-21.5845</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.58689999999999</v>
+        <v>-21.71599999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.39300000000001</v>
+        <v>-21.3904</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.294699999999997</v>
+        <v>5.631999999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>10.1122</v>
+        <v>10.0212</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
